--- a/results/mp/tinybert/corona/confidence/84/stop-words-topk-0.2/avg_0.003_scores.xlsx
+++ b/results/mp/tinybert/corona/confidence/84/stop-words-topk-0.2/avg_0.003_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="46">
   <si>
     <t>anchor score</t>
   </si>
@@ -43,130 +43,115 @@
     <t>crude</t>
   </si>
   <si>
-    <t>killed</t>
+    <t>crisis</t>
   </si>
   <si>
     <t>fraud</t>
   </si>
   <si>
-    <t>crisis</t>
-  </si>
-  <si>
-    <t>warning</t>
-  </si>
-  <si>
-    <t>war</t>
-  </si>
-  <si>
-    <t>emergency</t>
-  </si>
-  <si>
     <t>panic</t>
   </si>
   <si>
-    <t>low</t>
-  </si>
-  <si>
     <t>sc</t>
   </si>
   <si>
-    <t>stop</t>
-  </si>
-  <si>
     <t>negative</t>
   </si>
   <si>
+    <t>best</t>
+  </si>
+  <si>
+    <t>happy</t>
+  </si>
+  <si>
     <t>love</t>
   </si>
   <si>
     <t>interesting</t>
   </si>
   <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
     <t>nice</t>
   </si>
   <si>
-    <t>best</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>great</t>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>special</t>
   </si>
   <si>
     <t>free</t>
   </si>
   <si>
-    <t>thank</t>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
+    <t>better</t>
+  </si>
+  <si>
+    <t>heroes</t>
   </si>
   <si>
     <t>safety</t>
   </si>
   <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>special</t>
+    <t>fresh</t>
   </si>
   <si>
     <t>well</t>
   </si>
   <si>
-    <t>boost</t>
-  </si>
-  <si>
-    <t>confidence</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>heroes</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>fresh</t>
-  </si>
-  <si>
     <t>hand</t>
   </si>
   <si>
-    <t>hope</t>
-  </si>
-  <si>
     <t>relief</t>
   </si>
   <si>
     <t>care</t>
   </si>
   <si>
+    <t>like</t>
+  </si>
+  <si>
+    <t>important</t>
+  </si>
+  <si>
+    <t>help</t>
+  </si>
+  <si>
+    <t>please</t>
+  </si>
+  <si>
+    <t>sure</t>
+  </si>
+  <si>
+    <t>increase</t>
+  </si>
+  <si>
     <t>protect</t>
   </si>
   <si>
-    <t>like</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>please</t>
-  </si>
-  <si>
-    <t>join</t>
-  </si>
-  <si>
-    <t>alert</t>
-  </si>
-  <si>
-    <t>share</t>
+    <t>grocery</t>
+  </si>
+  <si>
+    <t>co</t>
   </si>
 </sst>
 </file>
@@ -524,7 +509,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q33"/>
+  <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -532,10 +517,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="J1" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -593,13 +578,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.96</v>
+        <v>0.7941176470588235</v>
       </c>
       <c r="C3">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D3">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -611,19 +596,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="K3">
-        <v>0.9583333333333334</v>
+        <v>0.9661016949152542</v>
       </c>
       <c r="L3">
-        <v>23</v>
+        <v>57</v>
       </c>
       <c r="M3">
-        <v>23</v>
+        <v>57</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -635,7 +620,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -643,13 +628,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.9090909090909091</v>
+        <v>0.6232876712328768</v>
       </c>
       <c r="C4">
-        <v>10</v>
+        <v>182</v>
       </c>
       <c r="D4">
-        <v>10</v>
+        <v>182</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -661,19 +646,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>1</v>
+        <v>110</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="K4">
-        <v>0.9444444444444444</v>
+        <v>0.9615384615384616</v>
       </c>
       <c r="L4">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="M4">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -693,13 +678,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.7647058823529411</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="C5">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="D5">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -711,19 +696,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="K5">
-        <v>0.9375</v>
+        <v>0.8913043478260869</v>
       </c>
       <c r="L5">
-        <v>15</v>
+        <v>41</v>
       </c>
       <c r="M5">
-        <v>15</v>
+        <v>41</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -735,7 +720,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -743,13 +728,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.7142857142857143</v>
+        <v>0.2151162790697674</v>
       </c>
       <c r="C6">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D6">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -761,13 +746,13 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>44</v>
+        <v>405</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="K6">
-        <v>0.90625</v>
+        <v>0.8787878787878788</v>
       </c>
       <c r="L6">
         <v>29</v>
@@ -785,7 +770,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -793,13 +778,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.6666666666666666</v>
+        <v>0.164021164021164</v>
       </c>
       <c r="C7">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="D7">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -811,319 +796,175 @@
         <v>0</v>
       </c>
       <c r="H7">
+        <v>158</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K7">
+        <v>0.8482142857142857</v>
+      </c>
+      <c r="L7">
+        <v>95</v>
+      </c>
+      <c r="M7">
+        <v>95</v>
+      </c>
+      <c r="N7">
+        <v>1</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+      <c r="P7" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
+      <c r="J8" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K8">
+        <v>0.8292682926829268</v>
+      </c>
+      <c r="L8">
+        <v>68</v>
+      </c>
+      <c r="M8">
+        <v>68</v>
+      </c>
+      <c r="N8">
+        <v>1</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+      <c r="P8" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
+      <c r="J9" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K9">
+        <v>0.8148148148148148</v>
+      </c>
+      <c r="L9">
+        <v>22</v>
+      </c>
+      <c r="M9">
+        <v>22</v>
+      </c>
+      <c r="N9">
+        <v>1</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+      <c r="P9" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q9">
         <v>5</v>
       </c>
-      <c r="J7" s="1" t="s">
+    </row>
+    <row r="10" spans="1:17">
+      <c r="J10" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K10">
+        <v>0.8103448275862069</v>
+      </c>
+      <c r="L10">
+        <v>47</v>
+      </c>
+      <c r="M10">
+        <v>47</v>
+      </c>
+      <c r="N10">
+        <v>1</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+      <c r="P10" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
+      <c r="J11" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K11">
+        <v>0.78125</v>
+      </c>
+      <c r="L11">
+        <v>100</v>
+      </c>
+      <c r="M11">
+        <v>100</v>
+      </c>
+      <c r="N11">
+        <v>1</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+      <c r="P11" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
+      <c r="J12" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="K12">
+        <v>0.7777777777777778</v>
+      </c>
+      <c r="L12">
+        <v>28</v>
+      </c>
+      <c r="M12">
+        <v>28</v>
+      </c>
+      <c r="N12">
+        <v>1</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+      <c r="P12" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
+      <c r="J13" s="1" t="s">
         <v>24</v>
-      </c>
-      <c r="K7">
-        <v>0.9</v>
-      </c>
-      <c r="L7">
-        <v>36</v>
-      </c>
-      <c r="M7">
-        <v>36</v>
-      </c>
-      <c r="N7">
-        <v>1</v>
-      </c>
-      <c r="O7">
-        <v>0</v>
-      </c>
-      <c r="P7" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q7">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
-      <c r="A8" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8">
-        <v>0.4583333333333333</v>
-      </c>
-      <c r="C8">
-        <v>11</v>
-      </c>
-      <c r="D8">
-        <v>11</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8">
-        <v>1</v>
-      </c>
-      <c r="G8" t="b">
-        <v>0</v>
-      </c>
-      <c r="H8">
-        <v>13</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="K8">
-        <v>0.8823529411764706</v>
-      </c>
-      <c r="L8">
-        <v>45</v>
-      </c>
-      <c r="M8">
-        <v>45</v>
-      </c>
-      <c r="N8">
-        <v>1</v>
-      </c>
-      <c r="O8">
-        <v>0</v>
-      </c>
-      <c r="P8" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q8">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
-      <c r="A9" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B9">
-        <v>0.4285714285714285</v>
-      </c>
-      <c r="C9">
-        <v>12</v>
-      </c>
-      <c r="D9">
-        <v>12</v>
-      </c>
-      <c r="E9">
-        <v>0</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9" t="b">
-        <v>0</v>
-      </c>
-      <c r="H9">
-        <v>16</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="K9">
-        <v>0.8392857142857143</v>
-      </c>
-      <c r="L9">
-        <v>47</v>
-      </c>
-      <c r="M9">
-        <v>47</v>
-      </c>
-      <c r="N9">
-        <v>1</v>
-      </c>
-      <c r="O9">
-        <v>0</v>
-      </c>
-      <c r="P9" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q9">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
-      <c r="A10" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B10">
-        <v>0.3218884120171674</v>
-      </c>
-      <c r="C10">
-        <v>75</v>
-      </c>
-      <c r="D10">
-        <v>75</v>
-      </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10" t="b">
-        <v>0</v>
-      </c>
-      <c r="H10">
-        <v>158</v>
-      </c>
-      <c r="J10" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="K10">
-        <v>0.8333333333333334</v>
-      </c>
-      <c r="L10">
-        <v>45</v>
-      </c>
-      <c r="M10">
-        <v>45</v>
-      </c>
-      <c r="N10">
-        <v>1</v>
-      </c>
-      <c r="O10">
-        <v>0</v>
-      </c>
-      <c r="P10" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q10">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
-      <c r="A11" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B11">
-        <v>0.25</v>
-      </c>
-      <c r="C11">
-        <v>20</v>
-      </c>
-      <c r="D11">
-        <v>20</v>
-      </c>
-      <c r="E11">
-        <v>0</v>
-      </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-      <c r="G11" t="b">
-        <v>0</v>
-      </c>
-      <c r="H11">
-        <v>60</v>
-      </c>
-      <c r="J11" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="K11">
-        <v>0.8275862068965517</v>
-      </c>
-      <c r="L11">
-        <v>24</v>
-      </c>
-      <c r="M11">
-        <v>24</v>
-      </c>
-      <c r="N11">
-        <v>1</v>
-      </c>
-      <c r="O11">
-        <v>0</v>
-      </c>
-      <c r="P11" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q11">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
-      <c r="A12" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B12">
-        <v>0.2209302325581395</v>
-      </c>
-      <c r="C12">
-        <v>19</v>
-      </c>
-      <c r="D12">
-        <v>19</v>
-      </c>
-      <c r="E12">
-        <v>0</v>
-      </c>
-      <c r="F12">
-        <v>1</v>
-      </c>
-      <c r="G12" t="b">
-        <v>0</v>
-      </c>
-      <c r="H12">
-        <v>67</v>
-      </c>
-      <c r="J12" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="K12">
-        <v>0.8235294117647058</v>
-      </c>
-      <c r="L12">
-        <v>42</v>
-      </c>
-      <c r="M12">
-        <v>42</v>
-      </c>
-      <c r="N12">
-        <v>1</v>
-      </c>
-      <c r="O12">
-        <v>0</v>
-      </c>
-      <c r="P12" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q12">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
-      <c r="A13" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B13">
-        <v>0.09090909090909091</v>
-      </c>
-      <c r="C13">
-        <v>10</v>
-      </c>
-      <c r="D13">
-        <v>10</v>
-      </c>
-      <c r="E13">
-        <v>0</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13" t="b">
-        <v>0</v>
-      </c>
-      <c r="H13">
-        <v>100</v>
-      </c>
-      <c r="J13" s="1" t="s">
-        <v>30</v>
       </c>
       <c r="K13">
         <v>0.7777777777777778</v>
       </c>
       <c r="L13">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="M13">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1135,21 +976,21 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="14" spans="1:17">
       <c r="J14" s="1" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="K14">
-        <v>0.7692307692307693</v>
+        <v>0.7666666666666667</v>
       </c>
       <c r="L14">
-        <v>10</v>
+        <v>92</v>
       </c>
       <c r="M14">
-        <v>10</v>
+        <v>92</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1161,21 +1002,21 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>3</v>
+        <v>28</v>
       </c>
     </row>
     <row r="15" spans="1:17">
       <c r="J15" s="1" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="K15">
-        <v>0.7692307692307693</v>
+        <v>0.7323943661971831</v>
       </c>
       <c r="L15">
-        <v>30</v>
+        <v>104</v>
       </c>
       <c r="M15">
-        <v>30</v>
+        <v>104</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1187,21 +1028,21 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>9</v>
+        <v>38</v>
       </c>
     </row>
     <row r="16" spans="1:17">
       <c r="J16" s="1" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="K16">
-        <v>0.7647058823529411</v>
+        <v>0.70625</v>
       </c>
       <c r="L16">
-        <v>13</v>
+        <v>113</v>
       </c>
       <c r="M16">
-        <v>13</v>
+        <v>113</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1213,21 +1054,21 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>4</v>
+        <v>47</v>
       </c>
     </row>
     <row r="17" spans="10:17">
       <c r="J17" s="1" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="K17">
-        <v>0.72</v>
+        <v>0.6981132075471698</v>
       </c>
       <c r="L17">
-        <v>18</v>
+        <v>74</v>
       </c>
       <c r="M17">
-        <v>18</v>
+        <v>74</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1239,21 +1080,21 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>7</v>
+        <v>32</v>
       </c>
     </row>
     <row r="18" spans="10:17">
       <c r="J18" s="1" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="K18">
-        <v>0.7123287671232876</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="L18">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="M18">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1270,16 +1111,16 @@
     </row>
     <row r="19" spans="10:17">
       <c r="J19" s="1" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="K19">
-        <v>0.7083333333333334</v>
+        <v>0.6595744680851063</v>
       </c>
       <c r="L19">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="M19">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1291,21 +1132,21 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>7</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" spans="10:17">
       <c r="J20" s="1" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="K20">
-        <v>0.7068965517241379</v>
+        <v>0.6470588235294118</v>
       </c>
       <c r="L20">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="M20">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1317,21 +1158,21 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="21" spans="10:17">
       <c r="J21" s="1" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="K21">
-        <v>0.6923076923076923</v>
+        <v>0.6458333333333334</v>
       </c>
       <c r="L21">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="M21">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1343,21 +1184,21 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>8</v>
+        <v>17</v>
       </c>
     </row>
     <row r="22" spans="10:17">
       <c r="J22" s="1" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="K22">
-        <v>0.5774647887323944</v>
+        <v>0.6382978723404256</v>
       </c>
       <c r="L22">
-        <v>123</v>
+        <v>60</v>
       </c>
       <c r="M22">
-        <v>123</v>
+        <v>60</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1369,21 +1210,21 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>90</v>
+        <v>34</v>
       </c>
     </row>
     <row r="23" spans="10:17">
       <c r="J23" s="1" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="K23">
-        <v>0.5714285714285714</v>
+        <v>0.5561357702349869</v>
       </c>
       <c r="L23">
-        <v>16</v>
+        <v>213</v>
       </c>
       <c r="M23">
-        <v>16</v>
+        <v>213</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1395,21 +1236,21 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>12</v>
+        <v>170</v>
       </c>
     </row>
     <row r="24" spans="10:17">
       <c r="J24" s="1" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="K24">
-        <v>0.5600000000000001</v>
+        <v>0.52</v>
       </c>
       <c r="L24">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="M24">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1421,21 +1262,21 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>11</v>
+        <v>24</v>
       </c>
     </row>
     <row r="25" spans="10:17">
       <c r="J25" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="K25">
+        <v>0.4719101123595505</v>
+      </c>
+      <c r="L25">
         <v>42</v>
       </c>
-      <c r="K25">
-        <v>0.5428571428571428</v>
-      </c>
-      <c r="L25">
-        <v>19</v>
-      </c>
       <c r="M25">
-        <v>19</v>
+        <v>42</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1447,21 +1288,21 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>16</v>
+        <v>47</v>
       </c>
     </row>
     <row r="26" spans="10:17">
       <c r="J26" s="1" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="K26">
-        <v>0.5333333333333333</v>
+        <v>0.4647058823529412</v>
       </c>
       <c r="L26">
-        <v>16</v>
+        <v>158</v>
       </c>
       <c r="M26">
-        <v>16</v>
+        <v>158</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1473,21 +1314,21 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>14</v>
+        <v>182</v>
       </c>
     </row>
     <row r="27" spans="10:17">
       <c r="J27" s="1" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="K27">
-        <v>0.5208333333333334</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="L27">
-        <v>75</v>
+        <v>20</v>
       </c>
       <c r="M27">
-        <v>75</v>
+        <v>20</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1499,21 +1340,21 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>69</v>
+        <v>25</v>
       </c>
     </row>
     <row r="28" spans="10:17">
       <c r="J28" s="1" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="K28">
-        <v>0.5151515151515151</v>
+        <v>0.423728813559322</v>
       </c>
       <c r="L28">
-        <v>17</v>
+        <v>125</v>
       </c>
       <c r="M28">
-        <v>17</v>
+        <v>125</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1525,21 +1366,21 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>16</v>
+        <v>170</v>
       </c>
     </row>
     <row r="29" spans="10:17">
       <c r="J29" s="1" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="K29">
-        <v>0.5038759689922481</v>
+        <v>0.3598326359832636</v>
       </c>
       <c r="L29">
-        <v>65</v>
+        <v>86</v>
       </c>
       <c r="M29">
-        <v>65</v>
+        <v>86</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1551,47 +1392,47 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>64</v>
+        <v>153</v>
       </c>
     </row>
     <row r="30" spans="10:17">
       <c r="J30" s="1" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="K30">
-        <v>0.4782608695652174</v>
+        <v>0.3125</v>
       </c>
       <c r="L30">
+        <v>20</v>
+      </c>
+      <c r="M30">
+        <v>20</v>
+      </c>
+      <c r="N30">
+        <v>1</v>
+      </c>
+      <c r="O30">
+        <v>0</v>
+      </c>
+      <c r="P30" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q30">
         <v>44</v>
-      </c>
-      <c r="M30">
-        <v>44</v>
-      </c>
-      <c r="N30">
-        <v>1</v>
-      </c>
-      <c r="O30">
-        <v>0</v>
-      </c>
-      <c r="P30" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q30">
-        <v>48</v>
       </c>
     </row>
     <row r="31" spans="10:17">
       <c r="J31" s="1" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="K31">
-        <v>0.44</v>
+        <v>0.3076923076923077</v>
       </c>
       <c r="L31">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="M31">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -1603,21 +1444,21 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>14</v>
+        <v>54</v>
       </c>
     </row>
     <row r="32" spans="10:17">
       <c r="J32" s="1" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="K32">
-        <v>0.3125</v>
+        <v>0.3013698630136986</v>
       </c>
       <c r="L32">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="M32">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -1629,21 +1470,21 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>22</v>
+        <v>51</v>
       </c>
     </row>
     <row r="33" spans="10:17">
       <c r="J33" s="1" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="K33">
-        <v>0.2894736842105263</v>
+        <v>0.02108768035516093</v>
       </c>
       <c r="L33">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="M33">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -1655,7 +1496,33 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>27</v>
+        <v>882</v>
+      </c>
+    </row>
+    <row r="34" spans="10:17">
+      <c r="J34" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="K34">
+        <v>0.009980682549903412</v>
+      </c>
+      <c r="L34">
+        <v>31</v>
+      </c>
+      <c r="M34">
+        <v>32</v>
+      </c>
+      <c r="N34">
+        <v>0.97</v>
+      </c>
+      <c r="O34">
+        <v>0.03000000000000003</v>
+      </c>
+      <c r="P34" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q34">
+        <v>3075</v>
       </c>
     </row>
   </sheetData>

--- a/results/mp/tinybert/corona/confidence/84/stop-words-topk-0.2/avg_0.003_scores.xlsx
+++ b/results/mp/tinybert/corona/confidence/84/stop-words-topk-0.2/avg_0.003_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="47">
   <si>
     <t>anchor score</t>
   </si>
@@ -43,12 +43,12 @@
     <t>crude</t>
   </si>
   <si>
+    <t>fraud</t>
+  </si>
+  <si>
     <t>crisis</t>
   </si>
   <si>
-    <t>fraud</t>
-  </si>
-  <si>
     <t>panic</t>
   </si>
   <si>
@@ -67,88 +67,91 @@
     <t>love</t>
   </si>
   <si>
+    <t>nice</t>
+  </si>
+  <si>
     <t>interesting</t>
   </si>
   <si>
     <t>great</t>
   </si>
   <si>
+    <t>special</t>
+  </si>
+  <si>
     <t>thanks</t>
   </si>
   <si>
-    <t>nice</t>
+    <t>thank</t>
   </si>
   <si>
     <t>positive</t>
   </si>
   <si>
-    <t>thank</t>
+    <t>free</t>
+  </si>
+  <si>
+    <t>support</t>
   </si>
   <si>
     <t>confidence</t>
   </si>
   <si>
-    <t>special</t>
-  </si>
-  <si>
-    <t>free</t>
+    <t>good</t>
   </si>
   <si>
     <t>safe</t>
   </si>
   <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>support</t>
+    <t>heroes</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>safety</t>
   </si>
   <si>
     <t>better</t>
   </si>
   <si>
-    <t>heroes</t>
-  </si>
-  <si>
-    <t>safety</t>
-  </si>
-  <si>
     <t>fresh</t>
   </si>
   <si>
-    <t>well</t>
-  </si>
-  <si>
     <t>hand</t>
   </si>
   <si>
     <t>relief</t>
   </si>
   <si>
+    <t>like</t>
+  </si>
+  <si>
+    <t>hope</t>
+  </si>
+  <si>
     <t>care</t>
   </si>
   <si>
-    <t>like</t>
-  </si>
-  <si>
-    <t>important</t>
-  </si>
-  <si>
     <t>help</t>
   </si>
   <si>
+    <t>protect</t>
+  </si>
+  <si>
+    <t>increase</t>
+  </si>
+  <si>
     <t>please</t>
   </si>
   <si>
-    <t>sure</t>
-  </si>
-  <si>
-    <t>increase</t>
-  </si>
-  <si>
-    <t>protect</t>
-  </si>
-  <si>
-    <t>grocery</t>
+    <t>shopping</t>
+  </si>
+  <si>
+    <t>store</t>
+  </si>
+  <si>
+    <t>19</t>
   </si>
   <si>
     <t>co</t>
@@ -509,7 +512,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q34"/>
+  <dimension ref="A1:Q35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -520,7 +523,7 @@
         <v>13</v>
       </c>
       <c r="J1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -602,13 +605,13 @@
         <v>14</v>
       </c>
       <c r="K3">
-        <v>0.9661016949152542</v>
+        <v>0.9322033898305084</v>
       </c>
       <c r="L3">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="M3">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -620,7 +623,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -628,13 +631,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.6232876712328768</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="C4">
-        <v>182</v>
+        <v>24</v>
       </c>
       <c r="D4">
-        <v>182</v>
+        <v>24</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -646,19 +649,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>110</v>
+        <v>12</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>15</v>
       </c>
       <c r="K4">
-        <v>0.9615384615384616</v>
+        <v>0.9230769230769231</v>
       </c>
       <c r="L4">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="M4">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -670,7 +673,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -678,13 +681,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.5555555555555556</v>
+        <v>0.6198630136986302</v>
       </c>
       <c r="C5">
-        <v>20</v>
+        <v>181</v>
       </c>
       <c r="D5">
-        <v>20</v>
+        <v>181</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -696,19 +699,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>16</v>
+        <v>111</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>16</v>
       </c>
       <c r="K5">
-        <v>0.8913043478260869</v>
+        <v>0.9130434782608695</v>
       </c>
       <c r="L5">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="M5">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -720,7 +723,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -728,13 +731,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.2151162790697674</v>
+        <v>0.2054263565891473</v>
       </c>
       <c r="C6">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="D6">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -746,19 +749,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>405</v>
+        <v>410</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>17</v>
       </c>
       <c r="K6">
-        <v>0.8787878787878788</v>
+        <v>0.8888888888888888</v>
       </c>
       <c r="L6">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="M6">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -770,7 +773,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -778,13 +781,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.164021164021164</v>
+        <v>0.1851851851851852</v>
       </c>
       <c r="C7">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="D7">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -796,19 +799,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="J7" s="1" t="s">
         <v>18</v>
       </c>
       <c r="K7">
-        <v>0.8482142857142857</v>
+        <v>0.8787878787878788</v>
       </c>
       <c r="L7">
-        <v>95</v>
+        <v>29</v>
       </c>
       <c r="M7">
-        <v>95</v>
+        <v>29</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -820,7 +823,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>17</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -828,13 +831,13 @@
         <v>19</v>
       </c>
       <c r="K8">
-        <v>0.8292682926829268</v>
+        <v>0.8660714285714286</v>
       </c>
       <c r="L8">
-        <v>68</v>
+        <v>97</v>
       </c>
       <c r="M8">
-        <v>68</v>
+        <v>97</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -846,7 +849,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -854,13 +857,13 @@
         <v>20</v>
       </c>
       <c r="K9">
-        <v>0.8148148148148148</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="L9">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="M9">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -872,7 +875,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -880,13 +883,13 @@
         <v>21</v>
       </c>
       <c r="K10">
-        <v>0.8103448275862069</v>
+        <v>0.8048780487804879</v>
       </c>
       <c r="L10">
-        <v>47</v>
+        <v>66</v>
       </c>
       <c r="M10">
-        <v>47</v>
+        <v>66</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -898,7 +901,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>11</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -906,13 +909,13 @@
         <v>22</v>
       </c>
       <c r="K11">
-        <v>0.78125</v>
+        <v>0.796875</v>
       </c>
       <c r="L11">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="M11">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -924,7 +927,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -932,13 +935,13 @@
         <v>23</v>
       </c>
       <c r="K12">
-        <v>0.7777777777777778</v>
+        <v>0.7931034482758621</v>
       </c>
       <c r="L12">
-        <v>28</v>
+        <v>46</v>
       </c>
       <c r="M12">
-        <v>28</v>
+        <v>46</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -950,7 +953,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -958,13 +961,13 @@
         <v>24</v>
       </c>
       <c r="K13">
-        <v>0.7777777777777778</v>
+        <v>0.7833333333333333</v>
       </c>
       <c r="L13">
-        <v>28</v>
+        <v>94</v>
       </c>
       <c r="M13">
-        <v>28</v>
+        <v>94</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -976,7 +979,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>8</v>
+        <v>26</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -984,13 +987,13 @@
         <v>25</v>
       </c>
       <c r="K14">
-        <v>0.7666666666666667</v>
+        <v>0.7452830188679245</v>
       </c>
       <c r="L14">
-        <v>92</v>
+        <v>79</v>
       </c>
       <c r="M14">
-        <v>92</v>
+        <v>79</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1002,7 +1005,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1010,13 +1013,13 @@
         <v>26</v>
       </c>
       <c r="K15">
-        <v>0.7323943661971831</v>
+        <v>0.7222222222222222</v>
       </c>
       <c r="L15">
-        <v>104</v>
+        <v>26</v>
       </c>
       <c r="M15">
-        <v>104</v>
+        <v>26</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1028,7 +1031,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>38</v>
+        <v>10</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1036,13 +1039,13 @@
         <v>27</v>
       </c>
       <c r="K16">
-        <v>0.70625</v>
+        <v>0.7125</v>
       </c>
       <c r="L16">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="M16">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1054,7 +1057,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="17" spans="10:17">
@@ -1062,13 +1065,13 @@
         <v>28</v>
       </c>
       <c r="K17">
-        <v>0.6981132075471698</v>
+        <v>0.6971830985915493</v>
       </c>
       <c r="L17">
-        <v>74</v>
+        <v>99</v>
       </c>
       <c r="M17">
-        <v>74</v>
+        <v>99</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1080,7 +1083,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>32</v>
+        <v>43</v>
       </c>
     </row>
     <row r="18" spans="10:17">
@@ -1088,13 +1091,13 @@
         <v>29</v>
       </c>
       <c r="K18">
-        <v>0.6666666666666666</v>
+        <v>0.6595744680851063</v>
       </c>
       <c r="L18">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="M18">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1106,7 +1109,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" spans="10:17">
@@ -1114,13 +1117,13 @@
         <v>30</v>
       </c>
       <c r="K19">
-        <v>0.6595744680851063</v>
+        <v>0.648936170212766</v>
       </c>
       <c r="L19">
-        <v>31</v>
+        <v>61</v>
       </c>
       <c r="M19">
-        <v>31</v>
+        <v>61</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1132,7 +1135,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="20" spans="10:17">
@@ -1166,13 +1169,13 @@
         <v>32</v>
       </c>
       <c r="K21">
-        <v>0.6458333333333334</v>
+        <v>0.6031746031746031</v>
       </c>
       <c r="L21">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="M21">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1184,7 +1187,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>17</v>
+        <v>25</v>
       </c>
     </row>
     <row r="22" spans="10:17">
@@ -1192,13 +1195,13 @@
         <v>33</v>
       </c>
       <c r="K22">
-        <v>0.6382978723404256</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="L22">
-        <v>60</v>
+        <v>28</v>
       </c>
       <c r="M22">
-        <v>60</v>
+        <v>28</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1210,7 +1213,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>34</v>
+        <v>20</v>
       </c>
     </row>
     <row r="23" spans="10:17">
@@ -1218,13 +1221,13 @@
         <v>34</v>
       </c>
       <c r="K23">
-        <v>0.5561357702349869</v>
+        <v>0.5378590078328982</v>
       </c>
       <c r="L23">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="M23">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1236,7 +1239,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>170</v>
+        <v>177</v>
       </c>
     </row>
     <row r="24" spans="10:17">
@@ -1270,13 +1273,13 @@
         <v>36</v>
       </c>
       <c r="K25">
-        <v>0.4719101123595505</v>
+        <v>0.4705882352941176</v>
       </c>
       <c r="L25">
-        <v>42</v>
+        <v>160</v>
       </c>
       <c r="M25">
-        <v>42</v>
+        <v>160</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1288,7 +1291,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>47</v>
+        <v>180</v>
       </c>
     </row>
     <row r="26" spans="10:17">
@@ -1296,13 +1299,13 @@
         <v>37</v>
       </c>
       <c r="K26">
-        <v>0.4647058823529412</v>
+        <v>0.4615384615384616</v>
       </c>
       <c r="L26">
-        <v>158</v>
+        <v>30</v>
       </c>
       <c r="M26">
-        <v>158</v>
+        <v>30</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1314,7 +1317,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>182</v>
+        <v>35</v>
       </c>
     </row>
     <row r="27" spans="10:17">
@@ -1322,13 +1325,13 @@
         <v>38</v>
       </c>
       <c r="K27">
-        <v>0.4444444444444444</v>
+        <v>0.4606741573033708</v>
       </c>
       <c r="L27">
-        <v>20</v>
+        <v>41</v>
       </c>
       <c r="M27">
-        <v>20</v>
+        <v>41</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1340,7 +1343,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>25</v>
+        <v>48</v>
       </c>
     </row>
     <row r="28" spans="10:17">
@@ -1348,13 +1351,13 @@
         <v>39</v>
       </c>
       <c r="K28">
-        <v>0.423728813559322</v>
+        <v>0.4542372881355932</v>
       </c>
       <c r="L28">
-        <v>125</v>
+        <v>134</v>
       </c>
       <c r="M28">
-        <v>125</v>
+        <v>134</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1366,7 +1369,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>170</v>
+        <v>161</v>
       </c>
     </row>
     <row r="29" spans="10:17">
@@ -1374,13 +1377,13 @@
         <v>40</v>
       </c>
       <c r="K29">
-        <v>0.3598326359832636</v>
+        <v>0.410958904109589</v>
       </c>
       <c r="L29">
-        <v>86</v>
+        <v>30</v>
       </c>
       <c r="M29">
-        <v>86</v>
+        <v>30</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1392,7 +1395,7 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>153</v>
+        <v>43</v>
       </c>
     </row>
     <row r="30" spans="10:17">
@@ -1400,13 +1403,13 @@
         <v>41</v>
       </c>
       <c r="K30">
-        <v>0.3125</v>
+        <v>0.3974358974358974</v>
       </c>
       <c r="L30">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="M30">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1418,7 +1421,7 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>44</v>
+        <v>47</v>
       </c>
     </row>
     <row r="31" spans="10:17">
@@ -1426,13 +1429,13 @@
         <v>42</v>
       </c>
       <c r="K31">
-        <v>0.3076923076923077</v>
+        <v>0.3347280334728033</v>
       </c>
       <c r="L31">
-        <v>24</v>
+        <v>80</v>
       </c>
       <c r="M31">
-        <v>24</v>
+        <v>80</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -1444,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>54</v>
+        <v>159</v>
       </c>
     </row>
     <row r="32" spans="10:17">
@@ -1452,13 +1455,13 @@
         <v>43</v>
       </c>
       <c r="K32">
-        <v>0.3013698630136986</v>
+        <v>0.04567307692307692</v>
       </c>
       <c r="L32">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="M32">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -1470,7 +1473,7 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>51</v>
+        <v>397</v>
       </c>
     </row>
     <row r="33" spans="10:17">
@@ -1478,13 +1481,13 @@
         <v>44</v>
       </c>
       <c r="K33">
-        <v>0.02108768035516093</v>
+        <v>0.03131991051454139</v>
       </c>
       <c r="L33">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="M33">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -1496,7 +1499,7 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>882</v>
+        <v>866</v>
       </c>
     </row>
     <row r="34" spans="10:17">
@@ -1504,25 +1507,51 @@
         <v>45</v>
       </c>
       <c r="K34">
-        <v>0.009980682549903412</v>
+        <v>0.01402524544179523</v>
       </c>
       <c r="L34">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="M34">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="N34">
-        <v>0.97</v>
+        <v>0.88</v>
       </c>
       <c r="O34">
-        <v>0.03000000000000003</v>
+        <v>0.12</v>
       </c>
       <c r="P34" t="b">
         <v>1</v>
       </c>
       <c r="Q34">
-        <v>3075</v>
+        <v>2109</v>
+      </c>
+    </row>
+    <row r="35" spans="10:17">
+      <c r="J35" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="K35">
+        <v>0.006443298969072165</v>
+      </c>
+      <c r="L35">
+        <v>20</v>
+      </c>
+      <c r="M35">
+        <v>23</v>
+      </c>
+      <c r="N35">
+        <v>0.87</v>
+      </c>
+      <c r="O35">
+        <v>0.13</v>
+      </c>
+      <c r="P35" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q35">
+        <v>3084</v>
       </c>
     </row>
   </sheetData>
